--- a/data/Food_Prices_For_Nutrition.xlsx
+++ b/data/Food_Prices_For_Nutrition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90D52886318DE7AA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{96269D4D-395F-424F-8E94-7C32CF914196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E889FE5C-584C-485D-9F2D-C7261A7DB450}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{96269D4D-395F-424F-8E94-7C32CF914196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85FF008C-46E1-47C3-92B8-4AE8DAB5100D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="531">
   <si>
     <t>Republic of Djibouti</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Republic of Moldova</t>
-  </si>
-  <si>
-    <t>Adapted from Herforth, A., Bai, Y., Venkat, A., Mahrt, K., Ebel, A. &amp; Masters, W.A. 2020. Cost and affordability of healthy diets across and within countries. Background paper for The State of Food Security and Nutrition in the World 2020. FAO Agricultural Development Economics Technical Study No. 9. Rome, FAO. (https://doi.org/10.4060/cb2431en); and Herforth, A., Venkat, A., Bai, Y., Costlow, L., Holleman, C. &amp; Masters, W.A. 2022. Methods and options to monitor the cost and affordability of a healthy diet globally. Background paper for The State of Food Security and Nutrition in the World 2022. FAO Agricultural Development Economics Working Paper 22-03. Rome, FAO. (https://doi.org/10.4060/cc1169en)</t>
   </si>
   <si>
     <t>KAZ</t>
@@ -422,9 +419,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Adapted from Herforth, A., Venkat, A., Bai, Y., Costlow, L., Holleman, C. &amp; Masters, W.A. 2022. Methods and options to monitor the cost and affordability of a healthy diet globally. Background paper for The State of Food Security and Nutrition in the World 2022. FAO Agricultural Development Economics Working Paper 22-03. Rome, FAO. (https://doi.org/10.4060/cc1169en); Bai, Y., Conti, V., Herforth, A., Cafiero, C., Ebel, A., Rissanen, M.O., Rosero Moncayo, J. &amp; Masters, W.A. 2024. Methods for monitoring the cost of a healthy diet based on price data from the International Comparison Program. FAO Statistics Division Working Paper. Rome, FAO. (forthcoming); and Bai, Y., Herforth, A., Cafiero C., Conti V., Rissanen, M.O., Masters, W.A &amp; Rosero Moncayo, J. 2024 Methods for monitoring the affordability of a healthy diet. FAO Statistics Division Working Paper. Rome, FAO. (forthcoming)</t>
-  </si>
-  <si>
     <t>Affordability of a nutrient adequate diet: ratio of cost to food expenditures</t>
   </si>
   <si>
@@ -777,9 +771,6 @@
   </si>
   <si>
     <t>Republic of The Gambia</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>Liberia</t>
@@ -990,9 +981,6 @@
     <t>TWN</t>
   </si>
   <si>
-    <t>Population data are sounced from the United Nations Department of Economic and Social Affairs (UN DESA) 2022 revision of the World Population Prospects.</t>
-  </si>
-  <si>
     <t>HIC</t>
   </si>
   <si>
@@ -1183,9 +1171,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>Adapted from Herforth, A., Bai, Y., Venkat, A., Mahrt, K., Ebel, A. &amp; Masters, W.A. 2020. Cost and affordability of healthy diets across and within countries. Background paper for The State of Food Security and Nutrition in the World 2020. FAO Agricultural Development Economics Technical Study No. 9. Rome, FAO. (https://doi.org/10.4060/cb2431en); Herforth, A., Venkat, A., Bai, Y., Costlow, L., Holleman, C. &amp; Masters, W.A. 2022. Methods and options to monitor the cost and affordability of a healthy diet globally. Background paper for The State of Food Security and Nutrition in the World 2022. FAO Agricultural Development Economics Working Paper 22-03. Rome, FAO. (https://doi.org/10.4060/cc1169en); and Bai, Y., Herforth, A., Cafiero C., Conti V., Rissanen, M.O., Masters, W.A &amp; Rosero Moncayo, J. 2024 Methods for monitoring the affordability of a healthy diet. FAO Statistics Division Working Paper. Rome, FAO. (forthcoming)</t>
-  </si>
-  <si>
     <t>LKA</t>
   </si>
   <si>
@@ -1337,9 +1322,6 @@
   </si>
   <si>
     <t>Number of people unable to afford a nutrient adequate diet</t>
-  </si>
-  <si>
-    <t>Adapted from Herforth, A., Venkat, A., Bai, Y., Costlow, L., Holleman, C. &amp; Masters, W.A. 2022. Methods and options to monitor the cost and affordability of a healthy diet globally. Background paper for The State of Food Security and Nutrition in the World 2022. FAO Agricultural Development Economics Working Paper 22-03. Rome, FAO. (https://doi.org/10.4060/cc1169en)</t>
   </si>
   <si>
     <t>CoNA_fexp</t>
@@ -1605,9 +1587,6 @@
     <t>Socialist Republic of Viet Nam</t>
   </si>
   <si>
-    <t>Adapted from Herforth, A., Venkat, A., Bai, Y., Costlow, L., Holleman, C. &amp; Masters, W.A. 2022. Methods and options to monitor the cost and affordability of a healthy diet globally. Background paper for The State of Food Security and Nutrition in the World 2022. FAO Agricultural Development Economics Working Paper 22-03. Rome, FAO. (https://doi.org/10.4060/cc1169en); and Bai, Y., Conti, V., Herforth, A., Cafiero, C., Ebel, A., Rissanen, M.O., Rosero Moncayo, J. &amp; Masters, W.A. 2024. Methods for monitoring the cost of a healthy diet based on price data from the International Comparison Program. FAO Statistics Division Working Paper. Rome, FAO. (forthcoming)</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1624,6 +1603,24 @@
   </si>
   <si>
     <t>Republic of Mozambique</t>
+  </si>
+  <si>
+    <t>Cost of fruits</t>
+  </si>
+  <si>
+    <t>Cost of starchy staples</t>
+  </si>
+  <si>
+    <t>Cost of vegetables</t>
+  </si>
+  <si>
+    <t>Cost of animal-source foods</t>
+  </si>
+  <si>
+    <t>Cost of legumes, nuts and seeds</t>
+  </si>
+  <si>
+    <t>Cost of oils and fats</t>
   </si>
 </sst>
 </file>
@@ -1676,6 +1673,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1963,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R158"/>
+  <dimension ref="A1:X158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,67 +1987,91 @@
     <col min="16" max="16" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O1" t="s">
         <v>357</v>
       </c>
-      <c r="B1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" t="s">
-        <v>439</v>
-      </c>
-      <c r="L1" t="s">
-        <v>362</v>
-      </c>
-      <c r="M1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O1" t="s">
-        <v>361</v>
-      </c>
       <c r="P1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="S1" t="s">
+        <v>525</v>
+      </c>
+      <c r="T1" t="s">
+        <v>526</v>
+      </c>
+      <c r="U1" t="s">
+        <v>527</v>
+      </c>
+      <c r="V1" t="s">
+        <v>528</v>
+      </c>
+      <c r="W1" t="s">
+        <v>529</v>
+      </c>
+      <c r="X1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -2099,10 +2124,28 @@
       <c r="R2">
         <v>2849635</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0.78</v>
+      </c>
+      <c r="T2">
+        <v>0.48</v>
+      </c>
+      <c r="U2">
+        <v>0.61</v>
+      </c>
+      <c r="V2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="W2">
+        <v>0.42</v>
+      </c>
+      <c r="X2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -2155,10 +2198,28 @@
       <c r="R3">
         <v>44761099</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>1.07</v>
+      </c>
+      <c r="T3">
+        <v>0.54</v>
+      </c>
+      <c r="U3">
+        <v>0.7</v>
+      </c>
+      <c r="V3">
+        <v>1.33</v>
+      </c>
+      <c r="W3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -2211,10 +2272,28 @@
       <c r="R4">
         <v>34532429</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>0.73</v>
+      </c>
+      <c r="T4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U4">
+        <v>0.43</v>
+      </c>
+      <c r="V4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.41</v>
+      </c>
+      <c r="X4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -2267,10 +2346,28 @@
       <c r="R5">
         <v>2870349</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>0.77</v>
+      </c>
+      <c r="T5">
+        <v>0.25</v>
+      </c>
+      <c r="U5">
+        <v>0.72</v>
+      </c>
+      <c r="V5">
+        <v>0.49</v>
+      </c>
+      <c r="W5">
+        <v>0.27</v>
+      </c>
+      <c r="X5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -2323,10 +2420,28 @@
       <c r="R6">
         <v>25956417</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0.72</v>
+      </c>
+      <c r="T6">
+        <v>0.27</v>
+      </c>
+      <c r="U6">
+        <v>0.73</v>
+      </c>
+      <c r="V6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W6">
+        <v>0.1</v>
+      </c>
+      <c r="X6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -2379,10 +2494,28 @@
       <c r="R7">
         <v>8967057</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0.63</v>
+      </c>
+      <c r="T7">
+        <v>0.65</v>
+      </c>
+      <c r="U7">
+        <v>0.44</v>
+      </c>
+      <c r="V7">
+        <v>1.04</v>
+      </c>
+      <c r="W7">
+        <v>0.35</v>
+      </c>
+      <c r="X7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -2435,10 +2568,28 @@
       <c r="R8">
         <v>10234371</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T8">
+        <v>0.4</v>
+      </c>
+      <c r="U8">
+        <v>0.67</v>
+      </c>
+      <c r="V8">
+        <v>1.37</v>
+      </c>
+      <c r="W8">
+        <v>0.23</v>
+      </c>
+      <c r="X8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -2491,10 +2642,28 @@
       <c r="R9">
         <v>167658850</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>0.97</v>
+      </c>
+      <c r="T9">
+        <v>0.61</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.87</v>
+      </c>
+      <c r="W9">
+        <v>0.27</v>
+      </c>
+      <c r="X9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -2547,10 +2716,28 @@
       <c r="R10">
         <v>9251365</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>0.76</v>
+      </c>
+      <c r="T10">
+        <v>0.23</v>
+      </c>
+      <c r="U10">
+        <v>0.64</v>
+      </c>
+      <c r="V10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W10">
+        <v>0.11</v>
+      </c>
+      <c r="X10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -2603,10 +2790,28 @@
       <c r="R11">
         <v>11570844</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0.23</v>
+      </c>
+      <c r="T11">
+        <v>0.53</v>
+      </c>
+      <c r="U11">
+        <v>0.98</v>
+      </c>
+      <c r="V11">
+        <v>0.71</v>
+      </c>
+      <c r="W11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -2659,10 +2864,28 @@
       <c r="R12">
         <v>395346</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0.38</v>
+      </c>
+      <c r="T12">
+        <v>0.61</v>
+      </c>
+      <c r="U12">
+        <v>0.6</v>
+      </c>
+      <c r="V12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="W12">
+        <v>0.31</v>
+      </c>
+      <c r="X12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -2715,10 +2938,28 @@
       <c r="R13">
         <v>13413417</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>1.45</v>
+      </c>
+      <c r="T13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U13">
+        <v>0.96</v>
+      </c>
+      <c r="V13">
+        <v>1.34</v>
+      </c>
+      <c r="W13">
+        <v>0.4</v>
+      </c>
+      <c r="X13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -2771,10 +3012,28 @@
       <c r="R14">
         <v>775442</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>0.65</v>
+      </c>
+      <c r="T14">
+        <v>0.76</v>
+      </c>
+      <c r="U14">
+        <v>0.69</v>
+      </c>
+      <c r="V14">
+        <v>1.21</v>
+      </c>
+      <c r="W14">
+        <v>0.39</v>
+      </c>
+      <c r="X14">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -2827,10 +3086,28 @@
       <c r="R15">
         <v>11937360</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0.74</v>
+      </c>
+      <c r="T15">
+        <v>0.65</v>
+      </c>
+      <c r="U15">
+        <v>1.18</v>
+      </c>
+      <c r="V15">
+        <v>1.02</v>
+      </c>
+      <c r="W15">
+        <v>0.62</v>
+      </c>
+      <c r="X15">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -2883,10 +3160,28 @@
       <c r="R16">
         <v>3244907</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>0.42</v>
+      </c>
+      <c r="T16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="W16">
+        <v>0.46</v>
+      </c>
+      <c r="X16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -2939,10 +3234,28 @@
       <c r="R17">
         <v>2401441</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0.65</v>
+      </c>
+      <c r="T17">
+        <v>0.62</v>
+      </c>
+      <c r="U17">
+        <v>0.67</v>
+      </c>
+      <c r="V17">
+        <v>0.83</v>
+      </c>
+      <c r="W17">
+        <v>0.94</v>
+      </c>
+      <c r="X17">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -2995,10 +3308,28 @@
       <c r="R18">
         <v>209550290</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>0.87</v>
+      </c>
+      <c r="T18">
+        <v>0.68</v>
+      </c>
+      <c r="U18">
+        <v>0.86</v>
+      </c>
+      <c r="V18">
+        <v>0.98</v>
+      </c>
+      <c r="W18">
+        <v>0.42</v>
+      </c>
+      <c r="X18">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -3051,10 +3382,28 @@
       <c r="R19">
         <v>6877225</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>0.4</v>
+      </c>
+      <c r="T19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V19">
+        <v>0.94</v>
+      </c>
+      <c r="W19">
+        <v>0.34</v>
+      </c>
+      <c r="X19">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -3107,10 +3456,28 @@
       <c r="R20">
         <v>21995243</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>0.45</v>
+      </c>
+      <c r="T20">
+        <v>0.67</v>
+      </c>
+      <c r="U20">
+        <v>0.42</v>
+      </c>
+      <c r="V20">
+        <v>1.58</v>
+      </c>
+      <c r="W20">
+        <v>0.25</v>
+      </c>
+      <c r="X20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -3163,10 +3530,28 @@
       <c r="R21">
         <v>12965481</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>0.61</v>
+      </c>
+      <c r="T21">
+        <v>0.42</v>
+      </c>
+      <c r="U21">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="V21">
+        <v>0.86</v>
+      </c>
+      <c r="W21">
+        <v>0.34</v>
+      </c>
+      <c r="X21">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -3219,10 +3604,28 @@
       <c r="R22">
         <v>516649</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>0.24</v>
+      </c>
+      <c r="T22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U22">
+        <v>0.34</v>
+      </c>
+      <c r="V22">
+        <v>1.39</v>
+      </c>
+      <c r="W22">
+        <v>0.26</v>
+      </c>
+      <c r="X22">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -3275,10 +3678,28 @@
       <c r="R23">
         <v>26915758</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>0.9</v>
+      </c>
+      <c r="T23">
+        <v>0.39</v>
+      </c>
+      <c r="U23">
+        <v>0.87</v>
+      </c>
+      <c r="V23">
+        <v>0.94</v>
+      </c>
+      <c r="W23">
+        <v>0.31</v>
+      </c>
+      <c r="X23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -3331,10 +3752,28 @@
       <c r="R24">
         <v>38454057</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>0.21</v>
+      </c>
+      <c r="T24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U24">
+        <v>0.84</v>
+      </c>
+      <c r="V24">
+        <v>1.33</v>
+      </c>
+      <c r="W24">
+        <v>0.2</v>
+      </c>
+      <c r="X24">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>2021</v>
@@ -3387,10 +3826,28 @@
       <c r="R25">
         <v>5112100</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>0.26</v>
+      </c>
+      <c r="T25">
+        <v>0.77</v>
+      </c>
+      <c r="U25">
+        <v>0.4</v>
+      </c>
+      <c r="V25">
+        <v>0.91</v>
+      </c>
+      <c r="W25">
+        <v>0.35</v>
+      </c>
+      <c r="X25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -3443,10 +3900,28 @@
       <c r="R26">
         <v>17828273</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>0.75</v>
+      </c>
+      <c r="T26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U26">
+        <v>1.05</v>
+      </c>
+      <c r="V26">
+        <v>0.8</v>
+      </c>
+      <c r="W26">
+        <v>0.41</v>
+      </c>
+      <c r="X26">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B27">
         <v>2021</v>
@@ -3499,10 +3974,28 @@
       <c r="R27">
         <v>19456334</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>0.73</v>
+      </c>
+      <c r="T27">
+        <v>0.45</v>
+      </c>
+      <c r="U27">
+        <v>0.59</v>
+      </c>
+      <c r="V27">
+        <v>0.9</v>
+      </c>
+      <c r="W27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X27">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B28">
         <v>2021</v>
@@ -3555,10 +4048,28 @@
       <c r="R28">
         <v>1426437300</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>0.54</v>
+      </c>
+      <c r="T28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U28">
+        <v>0.81</v>
+      </c>
+      <c r="V28">
+        <v>0.88</v>
+      </c>
+      <c r="W28">
+        <v>0.31</v>
+      </c>
+      <c r="X28">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B29">
         <v>2021</v>
@@ -3611,10 +4122,28 @@
       <c r="R29">
         <v>51188173</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>0.48</v>
+      </c>
+      <c r="T29">
+        <v>0.86</v>
+      </c>
+      <c r="U29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="V29">
+        <v>1.42</v>
+      </c>
+      <c r="W29">
+        <v>0.42</v>
+      </c>
+      <c r="X29">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B30">
         <v>2021</v>
@@ -3667,10 +4196,28 @@
       <c r="R30">
         <v>818174</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U30">
+        <v>0.32</v>
+      </c>
+      <c r="V30">
+        <v>1.72</v>
+      </c>
+      <c r="W30">
+        <v>0.27</v>
+      </c>
+      <c r="X30">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B31">
         <v>2021</v>
@@ -3723,10 +4270,28 @@
       <c r="R31">
         <v>99148932</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0.36</v>
+      </c>
+      <c r="T31">
+        <v>0.6</v>
+      </c>
+      <c r="U31">
+        <v>0.68</v>
+      </c>
+      <c r="V31">
+        <v>1.08</v>
+      </c>
+      <c r="W31">
+        <v>0.45</v>
+      </c>
+      <c r="X31">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -3779,10 +4344,28 @@
       <c r="R32">
         <v>5892183</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T32">
+        <v>0.74</v>
+      </c>
+      <c r="U32">
+        <v>0.85</v>
+      </c>
+      <c r="V32">
+        <v>0.95</v>
+      </c>
+      <c r="W32">
+        <v>0.43</v>
+      </c>
+      <c r="X32">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B33">
         <v>2021</v>
@@ -3835,10 +4418,28 @@
       <c r="R33">
         <v>5059988</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>0.27</v>
+      </c>
+      <c r="T33">
+        <v>0.62</v>
+      </c>
+      <c r="U33">
+        <v>0.32</v>
+      </c>
+      <c r="V33">
+        <v>1.38</v>
+      </c>
+      <c r="W33">
+        <v>0.16</v>
+      </c>
+      <c r="X33">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -3891,10 +4492,28 @@
       <c r="R34">
         <v>29639736</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>0.75</v>
+      </c>
+      <c r="T34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U34">
+        <v>0.87</v>
+      </c>
+      <c r="V34">
+        <v>1.04</v>
+      </c>
+      <c r="W34">
+        <v>0.34</v>
+      </c>
+      <c r="X34">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B35">
         <v>2021</v>
@@ -3947,10 +4566,28 @@
       <c r="R35">
         <v>3924610</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>0.75</v>
+      </c>
+      <c r="T35">
+        <v>0.46</v>
+      </c>
+      <c r="U35">
+        <v>0.74</v>
+      </c>
+      <c r="V35">
+        <v>0.81</v>
+      </c>
+      <c r="W35">
+        <v>0.34</v>
+      </c>
+      <c r="X35">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B36">
         <v>2021</v>
@@ -4003,10 +4640,28 @@
       <c r="R36">
         <v>1317309</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>0.65</v>
+      </c>
+      <c r="T36">
+        <v>0.44</v>
+      </c>
+      <c r="U36">
+        <v>0.78</v>
+      </c>
+      <c r="V36">
+        <v>0.8</v>
+      </c>
+      <c r="W36">
+        <v>0.38</v>
+      </c>
+      <c r="X36">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -4059,10 +4714,28 @@
       <c r="R37">
         <v>10530683</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>0.6</v>
+      </c>
+      <c r="T37">
+        <v>0.25</v>
+      </c>
+      <c r="U37">
+        <v>0.66</v>
+      </c>
+      <c r="V37">
+        <v>0.63</v>
+      </c>
+      <c r="W37">
+        <v>0.3</v>
+      </c>
+      <c r="X37">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -4115,10 +4788,28 @@
       <c r="R38">
         <v>5856776</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>0.44</v>
+      </c>
+      <c r="T38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U38">
+        <v>0.61</v>
+      </c>
+      <c r="V38">
+        <v>1.33</v>
+      </c>
+      <c r="W38">
+        <v>0.21</v>
+      </c>
+      <c r="X38">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B39">
         <v>2021</v>
@@ -4171,10 +4862,28 @@
       <c r="R39">
         <v>1121248</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>0.52</v>
+      </c>
+      <c r="T39">
+        <v>0.64</v>
+      </c>
+      <c r="U39">
+        <v>0.84</v>
+      </c>
+      <c r="V39">
+        <v>1.17</v>
+      </c>
+      <c r="W39">
+        <v>0.49</v>
+      </c>
+      <c r="X39">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B40">
         <v>2021</v>
@@ -4227,10 +4936,28 @@
       <c r="R40">
         <v>11123476</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>0.94</v>
+      </c>
+      <c r="T40">
+        <v>0.67</v>
+      </c>
+      <c r="U40">
+        <v>0.94</v>
+      </c>
+      <c r="V40">
+        <v>1.01</v>
+      </c>
+      <c r="W40">
+        <v>0.43</v>
+      </c>
+      <c r="X40">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B41">
         <v>2021</v>
@@ -4281,12 +5008,30 @@
         <v>494.2</v>
       </c>
       <c r="R41" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S41">
+        <v>0.35</v>
+      </c>
+      <c r="T41">
+        <v>0.68</v>
+      </c>
+      <c r="U41">
+        <v>0.41</v>
+      </c>
+      <c r="V41">
+        <v>0.83</v>
+      </c>
+      <c r="W41">
+        <v>0.3</v>
+      </c>
+      <c r="X41">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>2021</v>
@@ -4339,10 +5084,28 @@
       <c r="R42">
         <v>17682454</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>0.41</v>
+      </c>
+      <c r="T42">
+        <v>0.66</v>
+      </c>
+      <c r="U42">
+        <v>0.5</v>
+      </c>
+      <c r="V42">
+        <v>1.59</v>
+      </c>
+      <c r="W42">
+        <v>0.47</v>
+      </c>
+      <c r="X42">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B43">
         <v>2021</v>
@@ -4395,10 +5158,28 @@
       <c r="R43">
         <v>110957010</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>0.66</v>
+      </c>
+      <c r="T43">
+        <v>0.36</v>
+      </c>
+      <c r="U43">
+        <v>0.83</v>
+      </c>
+      <c r="V43">
+        <v>0.75</v>
+      </c>
+      <c r="W43">
+        <v>0.73</v>
+      </c>
+      <c r="X43">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B44">
         <v>2021</v>
@@ -4451,10 +5232,28 @@
       <c r="R44">
         <v>1331749</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>0.31</v>
+      </c>
+      <c r="T44">
+        <v>0.53</v>
+      </c>
+      <c r="U44">
+        <v>0.79</v>
+      </c>
+      <c r="V44">
+        <v>1.26</v>
+      </c>
+      <c r="W44">
+        <v>0.34</v>
+      </c>
+      <c r="X44">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B45">
         <v>2021</v>
@@ -4507,10 +5306,28 @@
       <c r="R45">
         <v>1206593</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>0.72</v>
+      </c>
+      <c r="T45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U45">
+        <v>0.34</v>
+      </c>
+      <c r="V45">
+        <v>1.28</v>
+      </c>
+      <c r="W45">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X45">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46">
         <v>2021</v>
@@ -4563,10 +5380,28 @@
       <c r="R46">
         <v>122138590</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>0.76</v>
+      </c>
+      <c r="T46">
+        <v>0.45</v>
+      </c>
+      <c r="U46">
+        <v>0.73</v>
+      </c>
+      <c r="V46">
+        <v>0.8</v>
+      </c>
+      <c r="W46">
+        <v>0.36</v>
+      </c>
+      <c r="X46">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>2021</v>
@@ -4617,12 +5452,30 @@
         <v>70</v>
       </c>
       <c r="R47" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S47">
+        <v>0.7</v>
+      </c>
+      <c r="T47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U47">
+        <v>1.01</v>
+      </c>
+      <c r="V47">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W47">
+        <v>0.33</v>
+      </c>
+      <c r="X47">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48">
         <v>2021</v>
@@ -4675,10 +5528,28 @@
       <c r="R48">
         <v>916711</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>0.62</v>
+      </c>
+      <c r="T48">
+        <v>0.22</v>
+      </c>
+      <c r="U48">
+        <v>0.9</v>
+      </c>
+      <c r="V48">
+        <v>0.59</v>
+      </c>
+      <c r="W48">
+        <v>0.48</v>
+      </c>
+      <c r="X48">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49">
         <v>2021</v>
@@ -4731,10 +5602,28 @@
       <c r="R49">
         <v>5541075</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>0.88</v>
+      </c>
+      <c r="T49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U49">
+        <v>0.95</v>
+      </c>
+      <c r="V49">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="W49">
+        <v>0.27</v>
+      </c>
+      <c r="X49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B50">
         <v>2021</v>
@@ -4787,10 +5676,28 @@
       <c r="R50">
         <v>66083548</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>0.45</v>
+      </c>
+      <c r="T50">
+        <v>0.59</v>
+      </c>
+      <c r="U50">
+        <v>1.03</v>
+      </c>
+      <c r="V50">
+        <v>1.02</v>
+      </c>
+      <c r="W50">
+        <v>0.37</v>
+      </c>
+      <c r="X50">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B51">
         <v>2021</v>
@@ -4843,10 +5750,28 @@
       <c r="R51">
         <v>2376722</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>0.41</v>
+      </c>
+      <c r="T51">
+        <v>0.8</v>
+      </c>
+      <c r="U51">
+        <v>0.33</v>
+      </c>
+      <c r="V51">
+        <v>0.94</v>
+      </c>
+      <c r="W51">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X51">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B52">
         <v>2021</v>
@@ -4899,10 +5824,28 @@
       <c r="R52">
         <v>2576010</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>0.9</v>
+      </c>
+      <c r="T52">
+        <v>0.3</v>
+      </c>
+      <c r="U52">
+        <v>0.86</v>
+      </c>
+      <c r="V52">
+        <v>0.66</v>
+      </c>
+      <c r="W52">
+        <v>0.32</v>
+      </c>
+      <c r="X52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>2021</v>
@@ -4955,10 +5898,28 @@
       <c r="R53">
         <v>83697083</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T53">
+        <v>0.77</v>
+      </c>
+      <c r="U53">
+        <v>0.51</v>
+      </c>
+      <c r="V53">
+        <v>1.6</v>
+      </c>
+      <c r="W53">
+        <v>0.44</v>
+      </c>
+      <c r="X53">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B54">
         <v>2021</v>
@@ -5011,10 +5972,28 @@
       <c r="R54">
         <v>32518665</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>0.66</v>
+      </c>
+      <c r="T54">
+        <v>0.43</v>
+      </c>
+      <c r="U54">
+        <v>0.8</v>
+      </c>
+      <c r="V54">
+        <v>0.9</v>
+      </c>
+      <c r="W54">
+        <v>0.33</v>
+      </c>
+      <c r="X54">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B55">
         <v>2021</v>
@@ -5067,10 +6046,28 @@
       <c r="R55">
         <v>10579561</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>1.19</v>
+      </c>
+      <c r="T55">
+        <v>0.75</v>
+      </c>
+      <c r="U55">
+        <v>1.43</v>
+      </c>
+      <c r="V55">
+        <v>0.96</v>
+      </c>
+      <c r="W55">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X55">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B56">
         <v>2021</v>
@@ -5123,10 +6120,28 @@
       <c r="R56">
         <v>116688</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>0.35</v>
+      </c>
+      <c r="T56">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U56">
+        <v>0.48</v>
+      </c>
+      <c r="V56">
+        <v>0.91</v>
+      </c>
+      <c r="W56">
+        <v>0.35</v>
+      </c>
+      <c r="X56">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57">
         <v>2021</v>
@@ -5179,10 +6194,28 @@
       <c r="R57">
         <v>17598650</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>0.32</v>
+      </c>
+      <c r="T57">
+        <v>0.5</v>
+      </c>
+      <c r="U57">
+        <v>0.36</v>
+      </c>
+      <c r="V57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W57">
+        <v>0.33</v>
+      </c>
+      <c r="X57">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B58">
         <v>2021</v>
@@ -5235,10 +6268,28 @@
       <c r="R58">
         <v>13710513</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>0.45</v>
+      </c>
+      <c r="T58">
+        <v>0.6</v>
+      </c>
+      <c r="U58">
+        <v>0.85</v>
+      </c>
+      <c r="V58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W58">
+        <v>0.24</v>
+      </c>
+      <c r="X58">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59">
         <v>2021</v>
@@ -5291,10 +6342,28 @@
       <c r="R59">
         <v>2058841</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" t="s">
+        <v>291</v>
+      </c>
+      <c r="T59" t="s">
+        <v>291</v>
+      </c>
+      <c r="U59" t="s">
+        <v>291</v>
+      </c>
+      <c r="V59" t="s">
+        <v>291</v>
+      </c>
+      <c r="W59" t="s">
+        <v>291</v>
+      </c>
+      <c r="X59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B60">
         <v>2021</v>
@@ -5347,10 +6416,28 @@
       <c r="R60">
         <v>815482</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>0.77</v>
+      </c>
+      <c r="T60">
+        <v>0.47</v>
+      </c>
+      <c r="U60">
+        <v>0.84</v>
+      </c>
+      <c r="V60">
+        <v>0.79</v>
+      </c>
+      <c r="W60">
+        <v>0.36</v>
+      </c>
+      <c r="X60">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61">
         <v>2021</v>
@@ -5401,12 +6488,30 @@
         <v>81</v>
       </c>
       <c r="R61" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S61">
+        <v>0.8</v>
+      </c>
+      <c r="T61">
+        <v>0.6</v>
+      </c>
+      <c r="U61">
+        <v>0.79</v>
+      </c>
+      <c r="V61">
+        <v>1.08</v>
+      </c>
+      <c r="W61">
+        <v>0.35</v>
+      </c>
+      <c r="X61">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B62">
         <v>2021</v>
@@ -5459,10 +6564,28 @@
       <c r="R62">
         <v>10289877</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>0.83</v>
+      </c>
+      <c r="T62">
+        <v>0.53</v>
+      </c>
+      <c r="U62">
+        <v>0.99</v>
+      </c>
+      <c r="V62">
+        <v>0.75</v>
+      </c>
+      <c r="W62">
+        <v>0.48</v>
+      </c>
+      <c r="X62">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B63">
         <v>2021</v>
@@ -5515,10 +6638,28 @@
       <c r="R63">
         <v>9707850</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>0.54</v>
+      </c>
+      <c r="T63">
+        <v>0.35</v>
+      </c>
+      <c r="U63">
+        <v>0.8</v>
+      </c>
+      <c r="V63">
+        <v>0.74</v>
+      </c>
+      <c r="W63">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>2021</v>
@@ -5571,10 +6712,28 @@
       <c r="R64">
         <v>372644</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>0.53</v>
+      </c>
+      <c r="T64">
+        <v>0.42</v>
+      </c>
+      <c r="U64">
+        <v>0.64</v>
+      </c>
+      <c r="V64">
+        <v>0.91</v>
+      </c>
+      <c r="W64">
+        <v>0.37</v>
+      </c>
+      <c r="X64">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B65">
         <v>2021</v>
@@ -5627,10 +6786,28 @@
       <c r="R65">
         <v>1414203900</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>0.91</v>
+      </c>
+      <c r="T65">
+        <v>0.69</v>
+      </c>
+      <c r="U65">
+        <v>0.78</v>
+      </c>
+      <c r="V65">
+        <v>1.25</v>
+      </c>
+      <c r="W65">
+        <v>0.46</v>
+      </c>
+      <c r="X65">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B66">
         <v>2021</v>
@@ -5683,10 +6860,28 @@
       <c r="R66">
         <v>276758050</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T66">
+        <v>0.62</v>
+      </c>
+      <c r="U66">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V66">
+        <v>1.38</v>
+      </c>
+      <c r="W66">
+        <v>0.36</v>
+      </c>
+      <c r="X66">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B67">
         <v>2021</v>
@@ -5739,10 +6934,28 @@
       <c r="R67">
         <v>43071211</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>0.65</v>
+      </c>
+      <c r="T67">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U67">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V67">
+        <v>0.46</v>
+      </c>
+      <c r="W67">
+        <v>0.22</v>
+      </c>
+      <c r="X67">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B68">
         <v>2021</v>
@@ -5795,10 +7008,28 @@
       <c r="R68">
         <v>5028426</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>0.71</v>
+      </c>
+      <c r="T68">
+        <v>0.41</v>
+      </c>
+      <c r="U68">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V68">
+        <v>0.71</v>
+      </c>
+      <c r="W68">
+        <v>0.27</v>
+      </c>
+      <c r="X68">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B69">
         <v>2021</v>
@@ -5851,10 +7082,28 @@
       <c r="R69">
         <v>8942924</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>0.93</v>
+      </c>
+      <c r="T69">
+        <v>0.32</v>
+      </c>
+      <c r="U69">
+        <v>0.81</v>
+      </c>
+      <c r="V69">
+        <v>0.75</v>
+      </c>
+      <c r="W69">
+        <v>0.32</v>
+      </c>
+      <c r="X69">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B70">
         <v>2021</v>
@@ -5907,10 +7156,28 @@
       <c r="R70">
         <v>59729350</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>1.47</v>
+      </c>
+      <c r="T70">
+        <v>0.53</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>0.95</v>
+      </c>
+      <c r="W70">
+        <v>0.64</v>
+      </c>
+      <c r="X70">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B71">
         <v>2021</v>
@@ -5963,10 +7230,28 @@
       <c r="R71">
         <v>2837682</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>1.29</v>
+      </c>
+      <c r="T71">
+        <v>1.45</v>
+      </c>
+      <c r="U71">
+        <v>1.55</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>0.53</v>
+      </c>
+      <c r="X71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B72">
         <v>2021</v>
@@ -6019,10 +7304,28 @@
       <c r="R72">
         <v>125679340</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>0.63</v>
+      </c>
+      <c r="T72">
+        <v>0.62</v>
+      </c>
+      <c r="U72">
+        <v>0.6</v>
+      </c>
+      <c r="V72">
+        <v>0.93</v>
+      </c>
+      <c r="W72">
+        <v>0.33</v>
+      </c>
+      <c r="X72">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B73">
         <v>2021</v>
@@ -6075,10 +7378,28 @@
       <c r="R73">
         <v>11066356</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>0.62</v>
+      </c>
+      <c r="T73">
+        <v>0.53</v>
+      </c>
+      <c r="U73">
+        <v>0.3</v>
+      </c>
+      <c r="V73">
+        <v>0.67</v>
+      </c>
+      <c r="W73">
+        <v>0.23</v>
+      </c>
+      <c r="X73">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B74">
         <v>2021</v>
@@ -6131,10 +7452,28 @@
       <c r="R74">
         <v>19743603</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>0.31</v>
+      </c>
+      <c r="T74">
+        <v>0.64</v>
+      </c>
+      <c r="U74">
+        <v>0.35</v>
+      </c>
+      <c r="V74">
+        <v>1.2</v>
+      </c>
+      <c r="W74">
+        <v>0.31</v>
+      </c>
+      <c r="X74">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B75">
         <v>2021</v>
@@ -6187,10 +7526,28 @@
       <c r="R75">
         <v>53219166</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>1.02</v>
+      </c>
+      <c r="T75">
+        <v>0.68</v>
+      </c>
+      <c r="U75">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V75">
+        <v>0.94</v>
+      </c>
+      <c r="W75">
+        <v>0.4</v>
+      </c>
+      <c r="X75">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B76">
         <v>2021</v>
@@ -6243,10 +7600,28 @@
       <c r="R76">
         <v>6820479</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>1.02</v>
+      </c>
+      <c r="T76">
+        <v>0.82</v>
+      </c>
+      <c r="U76">
+        <v>0.73</v>
+      </c>
+      <c r="V76">
+        <v>1.19</v>
+      </c>
+      <c r="W76">
+        <v>0.38</v>
+      </c>
+      <c r="X76">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77">
         <v>2021</v>
@@ -6299,10 +7674,28 @@
       <c r="R77">
         <v>7453194</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>0.78</v>
+      </c>
+      <c r="T77">
+        <v>0.65</v>
+      </c>
+      <c r="U77">
+        <v>0.98</v>
+      </c>
+      <c r="V77">
+        <v>0.9</v>
+      </c>
+      <c r="W77">
+        <v>0.48</v>
+      </c>
+      <c r="X77">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B78">
         <v>2021</v>
@@ -6353,12 +7746,30 @@
         <v>193.1</v>
       </c>
       <c r="R78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S78">
+        <v>0.77</v>
+      </c>
+      <c r="T78">
+        <v>0.45</v>
+      </c>
+      <c r="U78">
+        <v>0.8</v>
+      </c>
+      <c r="V78">
+        <v>0.87</v>
+      </c>
+      <c r="W78">
+        <v>0.34</v>
+      </c>
+      <c r="X78">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79">
         <v>2021</v>
@@ -6411,10 +7822,28 @@
       <c r="R79">
         <v>1885587</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>0.59</v>
+      </c>
+      <c r="U79">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V79">
+        <v>1.76</v>
+      </c>
+      <c r="W79">
+        <v>0.69</v>
+      </c>
+      <c r="X79">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80">
         <v>2021</v>
@@ -6467,10 +7896,28 @@
       <c r="R80">
         <v>5718122</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>0.64</v>
+      </c>
+      <c r="T80">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U80">
+        <v>0.96</v>
+      </c>
+      <c r="V80">
+        <v>1.33</v>
+      </c>
+      <c r="W80">
+        <v>0.49</v>
+      </c>
+      <c r="X80">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B81">
         <v>2021</v>
@@ -6523,10 +7970,28 @@
       <c r="R81">
         <v>2261542</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>0.36</v>
+      </c>
+      <c r="T81">
+        <v>0.66</v>
+      </c>
+      <c r="U81">
+        <v>0.94</v>
+      </c>
+      <c r="V81">
+        <v>1.02</v>
+      </c>
+      <c r="W81">
+        <v>0.25</v>
+      </c>
+      <c r="X81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B82">
         <v>2021</v>
@@ -6579,10 +8044,28 @@
       <c r="R82">
         <v>5259323</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>0.62</v>
+      </c>
+      <c r="T82">
+        <v>0.42</v>
+      </c>
+      <c r="U82">
+        <v>0.89</v>
+      </c>
+      <c r="V82">
+        <v>0.79</v>
+      </c>
+      <c r="W82">
+        <v>0.35</v>
+      </c>
+      <c r="X82">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B83">
         <v>2021</v>
@@ -6635,10 +8118,28 @@
       <c r="R83">
         <v>2794488</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <v>0.65</v>
+      </c>
+      <c r="T83">
+        <v>0.62</v>
+      </c>
+      <c r="U83">
+        <v>0.65</v>
+      </c>
+      <c r="V83">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="W83">
+        <v>0.37</v>
+      </c>
+      <c r="X83">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84">
         <v>2021</v>
@@ -6689,12 +8190,30 @@
         <v>1719.5</v>
       </c>
       <c r="R84" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S84">
+        <v>0.4</v>
+      </c>
+      <c r="T84">
+        <v>0.63</v>
+      </c>
+      <c r="U84">
+        <v>0.5</v>
+      </c>
+      <c r="V84">
+        <v>1.26</v>
+      </c>
+      <c r="W84">
+        <v>0.33</v>
+      </c>
+      <c r="X84">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B85">
         <v>2021</v>
@@ -6745,12 +8264,30 @@
         <v>502.4</v>
       </c>
       <c r="R85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S85">
+        <v>0.78</v>
+      </c>
+      <c r="T85">
+        <v>0.26</v>
+      </c>
+      <c r="U85">
+        <v>0.73</v>
+      </c>
+      <c r="V85">
+        <v>0.54</v>
+      </c>
+      <c r="W85">
+        <v>0.33</v>
+      </c>
+      <c r="X85">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86">
         <v>2021</v>
@@ -6803,10 +8340,28 @@
       <c r="R86">
         <v>640274</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>0.45</v>
+      </c>
+      <c r="T86">
+        <v>0.62</v>
+      </c>
+      <c r="U86">
+        <v>0.42</v>
+      </c>
+      <c r="V86">
+        <v>1.3</v>
+      </c>
+      <c r="W86">
+        <v>0.36</v>
+      </c>
+      <c r="X86">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B87">
         <v>2021</v>
@@ -6859,10 +8414,28 @@
       <c r="R87">
         <v>29691083</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>0.33</v>
+      </c>
+      <c r="T87">
+        <v>0.6</v>
+      </c>
+      <c r="U87">
+        <v>0.37</v>
+      </c>
+      <c r="V87">
+        <v>1.2</v>
+      </c>
+      <c r="W87">
+        <v>0.27</v>
+      </c>
+      <c r="X87">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B88">
         <v>2021</v>
@@ -6915,10 +8488,28 @@
       <c r="R88">
         <v>20047258</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>0.85</v>
+      </c>
+      <c r="T88">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U88">
+        <v>0.71</v>
+      </c>
+      <c r="V88">
+        <v>0.81</v>
+      </c>
+      <c r="W88">
+        <v>0.33</v>
+      </c>
+      <c r="X88">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B89">
         <v>2021</v>
@@ -6971,10 +8562,28 @@
       <c r="R89">
         <v>34282399</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>0.99</v>
+      </c>
+      <c r="T89">
+        <v>0.18</v>
+      </c>
+      <c r="U89">
+        <v>1.26</v>
+      </c>
+      <c r="V89">
+        <v>0.93</v>
+      </c>
+      <c r="W89">
+        <v>0.45</v>
+      </c>
+      <c r="X89">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B90">
         <v>2021</v>
@@ -7027,10 +8636,28 @@
       <c r="R90">
         <v>516154</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>0.35</v>
+      </c>
+      <c r="T90">
+        <v>0.59</v>
+      </c>
+      <c r="U90">
+        <v>0.47</v>
+      </c>
+      <c r="V90">
+        <v>1.34</v>
+      </c>
+      <c r="W90">
+        <v>0.26</v>
+      </c>
+      <c r="X90">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B91">
         <v>2021</v>
@@ -7083,10 +8710,28 @@
       <c r="R91">
         <v>22388630</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T91">
+        <v>0.54</v>
+      </c>
+      <c r="U91">
+        <v>0.83</v>
+      </c>
+      <c r="V91">
+        <v>0.89</v>
+      </c>
+      <c r="W91">
+        <v>0.48</v>
+      </c>
+      <c r="X91">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B92">
         <v>2021</v>
@@ -7139,10 +8784,28 @@
       <c r="R92">
         <v>524376</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>0.89</v>
+      </c>
+      <c r="T92">
+        <v>0.63</v>
+      </c>
+      <c r="U92">
+        <v>0.86</v>
+      </c>
+      <c r="V92">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W92">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X92">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B93">
         <v>2021</v>
@@ -7195,10 +8858,28 @@
       <c r="R93">
         <v>4734874</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>0.51</v>
+      </c>
+      <c r="T93">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U93">
+        <v>1.31</v>
+      </c>
+      <c r="V93">
+        <v>1.02</v>
+      </c>
+      <c r="W93">
+        <v>0.36</v>
+      </c>
+      <c r="X93">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B94">
         <v>2021</v>
@@ -7251,10 +8932,28 @@
       <c r="R94">
         <v>1279623</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T94">
+        <v>0.51</v>
+      </c>
+      <c r="U94">
+        <v>0.79</v>
+      </c>
+      <c r="V94">
+        <v>0.85</v>
+      </c>
+      <c r="W94">
+        <v>0.44</v>
+      </c>
+      <c r="X94">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B95">
         <v>2021</v>
@@ -7307,10 +9006,28 @@
       <c r="R95">
         <v>127648150</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <v>0.67</v>
+      </c>
+      <c r="T95">
+        <v>0.52</v>
+      </c>
+      <c r="U95">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V95">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="W95">
+        <v>0.4</v>
+      </c>
+      <c r="X95">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B96">
         <v>2021</v>
@@ -7361,12 +9078,30 @@
         <v>126.9</v>
       </c>
       <c r="R96" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S96">
+        <v>0.75</v>
+      </c>
+      <c r="T96">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U96">
+        <v>0.41</v>
+      </c>
+      <c r="V96">
+        <v>0.78</v>
+      </c>
+      <c r="W96">
+        <v>0.21</v>
+      </c>
+      <c r="X96">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B97">
         <v>2021</v>
@@ -7419,10 +9154,28 @@
       <c r="R97">
         <v>3023778</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <v>2.38</v>
+      </c>
+      <c r="T97">
+        <v>0.5</v>
+      </c>
+      <c r="U97">
+        <v>0.85</v>
+      </c>
+      <c r="V97">
+        <v>0.84</v>
+      </c>
+      <c r="W97">
+        <v>0.49</v>
+      </c>
+      <c r="X97">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98">
         <v>2021</v>
@@ -7475,10 +9228,28 @@
       <c r="R98">
         <v>3339674</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <v>0.7</v>
+      </c>
+      <c r="T98">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U98">
+        <v>0.89</v>
+      </c>
+      <c r="V98">
+        <v>0.89</v>
+      </c>
+      <c r="W98">
+        <v>0.47</v>
+      </c>
+      <c r="X98">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99">
         <v>2021</v>
@@ -7531,10 +9302,28 @@
       <c r="R99">
         <v>603851</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>0.45</v>
+      </c>
+      <c r="T99">
+        <v>0.47</v>
+      </c>
+      <c r="U99">
+        <v>0.52</v>
+      </c>
+      <c r="V99">
+        <v>0.83</v>
+      </c>
+      <c r="W99">
+        <v>0.38</v>
+      </c>
+      <c r="X99">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B100">
         <v>2021</v>
@@ -7587,10 +9376,28 @@
       <c r="R100">
         <v>36954442</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <v>0.22</v>
+      </c>
+      <c r="T100">
+        <v>0.6</v>
+      </c>
+      <c r="U100">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V100">
+        <v>1.21</v>
+      </c>
+      <c r="W100">
+        <v>0.41</v>
+      </c>
+      <c r="X100">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B101">
         <v>2021</v>
@@ -7643,10 +9450,28 @@
       <c r="R101">
         <v>31707800</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>0.67</v>
+      </c>
+      <c r="T101">
+        <v>0.68</v>
+      </c>
+      <c r="U101">
+        <v>0.97</v>
+      </c>
+      <c r="V101">
+        <v>1.04</v>
+      </c>
+      <c r="W101">
+        <v>0.25</v>
+      </c>
+      <c r="X101">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B102">
         <v>2021</v>
@@ -7699,10 +9524,28 @@
       <c r="R102">
         <v>2810548</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <v>0.72</v>
+      </c>
+      <c r="T102">
+        <v>0.6</v>
+      </c>
+      <c r="U102">
+        <v>0.79</v>
+      </c>
+      <c r="V102">
+        <v>0.92</v>
+      </c>
+      <c r="W102">
+        <v>0.39</v>
+      </c>
+      <c r="X102">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103">
         <v>2021</v>
@@ -7755,10 +9598,28 @@
       <c r="R103">
         <v>29475010</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <v>0.69</v>
+      </c>
+      <c r="T103">
+        <v>0.32</v>
+      </c>
+      <c r="U103">
+        <v>0.59</v>
+      </c>
+      <c r="V103">
+        <v>0.61</v>
+      </c>
+      <c r="W103">
+        <v>0.25</v>
+      </c>
+      <c r="X103">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104">
         <v>2021</v>
@@ -7811,10 +9672,28 @@
       <c r="R104">
         <v>17730564</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <v>0.54</v>
+      </c>
+      <c r="T104">
+        <v>0.88</v>
+      </c>
+      <c r="U104">
+        <v>0.89</v>
+      </c>
+      <c r="V104">
+        <v>1.23</v>
+      </c>
+      <c r="W104">
+        <v>0.33</v>
+      </c>
+      <c r="X104">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B105">
         <v>2021</v>
@@ -7867,10 +9746,28 @@
       <c r="R105">
         <v>6644741</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <v>0.72</v>
+      </c>
+      <c r="T105">
+        <v>0.43</v>
+      </c>
+      <c r="U105">
+        <v>0.47</v>
+      </c>
+      <c r="V105">
+        <v>1.51</v>
+      </c>
+      <c r="W105">
+        <v>0.26</v>
+      </c>
+      <c r="X105">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B106">
         <v>2021</v>
@@ -7923,10 +9820,28 @@
       <c r="R106">
         <v>24502140</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <v>0.34</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>0.75</v>
+      </c>
+      <c r="V106">
+        <v>1.01</v>
+      </c>
+      <c r="W106">
+        <v>0.25</v>
+      </c>
+      <c r="X106">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B107">
         <v>2021</v>
@@ -7979,10 +9894,28 @@
       <c r="R107">
         <v>218529290</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T107">
+        <v>0.39</v>
+      </c>
+      <c r="U107">
+        <v>0.78</v>
+      </c>
+      <c r="V107">
+        <v>0.71</v>
+      </c>
+      <c r="W107">
+        <v>0.24</v>
+      </c>
+      <c r="X107">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B108">
         <v>2021</v>
@@ -8033,12 +9966,30 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="R108" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S108">
+        <v>0.78</v>
+      </c>
+      <c r="T108">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U108">
+        <v>0.77</v>
+      </c>
+      <c r="V108">
+        <v>1.18</v>
+      </c>
+      <c r="W108">
+        <v>0.44</v>
+      </c>
+      <c r="X108">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B109">
         <v>2021</v>
@@ -8091,10 +10042,28 @@
       <c r="R109">
         <v>1851108</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <v>0.79</v>
+      </c>
+      <c r="T109">
+        <v>0.62</v>
+      </c>
+      <c r="U109">
+        <v>0.93</v>
+      </c>
+      <c r="V109">
+        <v>0.87</v>
+      </c>
+      <c r="W109">
+        <v>0.35</v>
+      </c>
+      <c r="X109">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B110">
         <v>2021</v>
@@ -8147,10 +10116,28 @@
       <c r="R110">
         <v>5408091</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>0.78</v>
+      </c>
+      <c r="T110">
+        <v>0.46</v>
+      </c>
+      <c r="U110">
+        <v>0.4</v>
+      </c>
+      <c r="V110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W110">
+        <v>0.33</v>
+      </c>
+      <c r="X110">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B111">
         <v>2021</v>
@@ -8203,10 +10190,28 @@
       <c r="R111">
         <v>239477800</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <v>0.75</v>
+      </c>
+      <c r="T111">
+        <v>0.76</v>
+      </c>
+      <c r="U111">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V111">
+        <v>1.22</v>
+      </c>
+      <c r="W111">
+        <v>0.38</v>
+      </c>
+      <c r="X111">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112">
         <v>2021</v>
@@ -8259,10 +10264,28 @@
       <c r="R112">
         <v>4345405</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <v>0.74</v>
+      </c>
+      <c r="T112">
+        <v>0.45</v>
+      </c>
+      <c r="U112">
+        <v>1.02</v>
+      </c>
+      <c r="V112">
+        <v>0.85</v>
+      </c>
+      <c r="W112">
+        <v>0.96</v>
+      </c>
+      <c r="X112">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B113">
         <v>2021</v>
@@ -8315,10 +10338,28 @@
       <c r="R113">
         <v>6684182</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <v>0.62</v>
+      </c>
+      <c r="T113">
+        <v>0.63</v>
+      </c>
+      <c r="U113">
+        <v>0.61</v>
+      </c>
+      <c r="V113">
+        <v>1.04</v>
+      </c>
+      <c r="W113">
+        <v>0.47</v>
+      </c>
+      <c r="X113">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B114">
         <v>2021</v>
@@ -8371,10 +10412,28 @@
       <c r="R114">
         <v>33155882</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <v>0.77</v>
+      </c>
+      <c r="T114">
+        <v>0.68</v>
+      </c>
+      <c r="U114">
+        <v>1.02</v>
+      </c>
+      <c r="V114">
+        <v>0.8</v>
+      </c>
+      <c r="W114">
+        <v>0.38</v>
+      </c>
+      <c r="X114">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B115">
         <v>2021</v>
@@ -8427,10 +10486,28 @@
       <c r="R115">
         <v>113100950</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115">
+        <v>0.65</v>
+      </c>
+      <c r="T115">
+        <v>0.4</v>
+      </c>
+      <c r="U115">
+        <v>1.05</v>
+      </c>
+      <c r="V115">
+        <v>0.8</v>
+      </c>
+      <c r="W115">
+        <v>0.42</v>
+      </c>
+      <c r="X115">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B116">
         <v>2021</v>
@@ -8483,10 +10560,28 @@
       <c r="R116">
         <v>38040302</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <v>0.62</v>
+      </c>
+      <c r="T116">
+        <v>0.35</v>
+      </c>
+      <c r="U116">
+        <v>0.82</v>
+      </c>
+      <c r="V116">
+        <v>0.74</v>
+      </c>
+      <c r="W116">
+        <v>0.36</v>
+      </c>
+      <c r="X116">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>2021</v>
@@ -8539,10 +10634,28 @@
       <c r="R117">
         <v>10390956</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <v>0.72</v>
+      </c>
+      <c r="T117">
+        <v>0.44</v>
+      </c>
+      <c r="U117">
+        <v>0.53</v>
+      </c>
+      <c r="V117">
+        <v>1.02</v>
+      </c>
+      <c r="W117">
+        <v>0.42</v>
+      </c>
+      <c r="X117">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B118">
         <v>2021</v>
@@ -8595,10 +10708,28 @@
       <c r="R118">
         <v>19248161</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <v>0.62</v>
+      </c>
+      <c r="T118">
+        <v>0.41</v>
+      </c>
+      <c r="U118">
+        <v>0.52</v>
+      </c>
+      <c r="V118">
+        <v>0.64</v>
+      </c>
+      <c r="W118">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X118">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>2021</v>
@@ -8622,13 +10753,13 @@
         <v>0.83</v>
       </c>
       <c r="I119" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J119" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K119" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L119">
         <v>0.6</v>
@@ -8651,10 +10782,28 @@
       <c r="R119">
         <v>145836170</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <v>0.4</v>
+      </c>
+      <c r="T119">
+        <v>0.62</v>
+      </c>
+      <c r="U119">
+        <v>0.32</v>
+      </c>
+      <c r="V119">
+        <v>1.43</v>
+      </c>
+      <c r="W119">
+        <v>0.22</v>
+      </c>
+      <c r="X119">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B120">
         <v>2021</v>
@@ -8707,10 +10856,28 @@
       <c r="R120">
         <v>13355260</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <v>0.16</v>
+      </c>
+      <c r="T120">
+        <v>0.52</v>
+      </c>
+      <c r="U120">
+        <v>0.78</v>
+      </c>
+      <c r="V120">
+        <v>0.87</v>
+      </c>
+      <c r="W120">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X120">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B121">
         <v>2021</v>
@@ -8763,10 +10930,28 @@
       <c r="R121">
         <v>221961</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T121">
+        <v>0.52</v>
+      </c>
+      <c r="U121">
+        <v>0.61</v>
+      </c>
+      <c r="V121">
+        <v>1.05</v>
+      </c>
+      <c r="W121">
+        <v>0.31</v>
+      </c>
+      <c r="X121">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B122">
         <v>2021</v>
@@ -8819,10 +11004,28 @@
       <c r="R122">
         <v>17220867</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <v>0.75</v>
+      </c>
+      <c r="T122">
+        <v>0.69</v>
+      </c>
+      <c r="U122">
+        <v>0.86</v>
+      </c>
+      <c r="V122">
+        <v>0.98</v>
+      </c>
+      <c r="W122">
+        <v>0.59</v>
+      </c>
+      <c r="X122">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B123">
         <v>2021</v>
@@ -8875,10 +11078,28 @@
       <c r="R123">
         <v>6835430</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <v>0.32</v>
+      </c>
+      <c r="T123">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U123">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V123">
+        <v>1.04</v>
+      </c>
+      <c r="W123">
+        <v>0.37</v>
+      </c>
+      <c r="X123">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B124">
         <v>2021</v>
@@ -8931,10 +11152,28 @@
       <c r="R124">
         <v>122987</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <v>0.26</v>
+      </c>
+      <c r="T124">
+        <v>0.65</v>
+      </c>
+      <c r="U124">
+        <v>0.42</v>
+      </c>
+      <c r="V124">
+        <v>1.18</v>
+      </c>
+      <c r="W124">
+        <v>0.38</v>
+      </c>
+      <c r="X124">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B125">
         <v>2021</v>
@@ -8987,10 +11226,28 @@
       <c r="R125">
         <v>8094602</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <v>0.64</v>
+      </c>
+      <c r="T125">
+        <v>0.37</v>
+      </c>
+      <c r="U125">
+        <v>0.92</v>
+      </c>
+      <c r="V125">
+        <v>0.62</v>
+      </c>
+      <c r="W125">
+        <v>0.33</v>
+      </c>
+      <c r="X125">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B126">
         <v>2021</v>
@@ -9043,10 +11300,28 @@
       <c r="R126">
         <v>5442759</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <v>0.75</v>
+      </c>
+      <c r="T126">
+        <v>0.31</v>
+      </c>
+      <c r="U126">
+        <v>0.76</v>
+      </c>
+      <c r="V126">
+        <v>0.74</v>
+      </c>
+      <c r="W126">
+        <v>0.39</v>
+      </c>
+      <c r="X126">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B127">
         <v>2021</v>
@@ -9099,10 +11374,28 @@
       <c r="R127">
         <v>2113494</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127">
+        <v>0.86</v>
+      </c>
+      <c r="T127">
+        <v>0.45</v>
+      </c>
+      <c r="U127">
+        <v>0.81</v>
+      </c>
+      <c r="V127">
+        <v>1.08</v>
+      </c>
+      <c r="W127">
+        <v>0.34</v>
+      </c>
+      <c r="X127">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B128">
         <v>2021</v>
@@ -9155,10 +11448,28 @@
       <c r="R128">
         <v>61502603</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <v>0.83</v>
+      </c>
+      <c r="T128">
+        <v>0.31</v>
+      </c>
+      <c r="U128">
+        <v>0.79</v>
+      </c>
+      <c r="V128">
+        <v>0.68</v>
+      </c>
+      <c r="W128">
+        <v>0.23</v>
+      </c>
+      <c r="X128">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B129">
         <v>2021</v>
@@ -9209,12 +11520,30 @@
         <v>1091.4000000000001</v>
       </c>
       <c r="R129" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S129">
+        <v>0.51</v>
+      </c>
+      <c r="T129">
+        <v>0.81</v>
+      </c>
+      <c r="U129">
+        <v>1.08</v>
+      </c>
+      <c r="V129">
+        <v>0.93</v>
+      </c>
+      <c r="W129">
+        <v>0.32</v>
+      </c>
+      <c r="X129">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B130">
         <v>2021</v>
@@ -9267,10 +11596,28 @@
       <c r="R130">
         <v>47735664</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <v>0.4</v>
+      </c>
+      <c r="T130">
+        <v>0.64</v>
+      </c>
+      <c r="U130">
+        <v>0.62</v>
+      </c>
+      <c r="V130">
+        <v>1.18</v>
+      </c>
+      <c r="W130">
+        <v>0.33</v>
+      </c>
+      <c r="X130">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>2021</v>
@@ -9323,8 +11670,26 @@
       <c r="R131">
         <v>22700372</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <v>0.25</v>
+      </c>
+      <c r="T131">
+        <v>0.35</v>
+      </c>
+      <c r="U131">
+        <v>0.42</v>
+      </c>
+      <c r="V131">
+        <v>0.66</v>
+      </c>
+      <c r="W131">
+        <v>0.24</v>
+      </c>
+      <c r="X131">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -9379,10 +11744,28 @@
       <c r="R132">
         <v>178522</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132">
+        <v>1.07</v>
+      </c>
+      <c r="T132">
+        <v>0.62</v>
+      </c>
+      <c r="U132">
+        <v>1.45</v>
+      </c>
+      <c r="V132">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="W132">
+        <v>0.95</v>
+      </c>
+      <c r="X132">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B133">
         <v>2021</v>
@@ -9433,12 +11816,30 @@
         <v>846.6</v>
       </c>
       <c r="R133" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S133">
+        <v>0.81</v>
+      </c>
+      <c r="T133">
+        <v>0.31</v>
+      </c>
+      <c r="U133">
+        <v>0.9</v>
+      </c>
+      <c r="V133">
+        <v>0.59</v>
+      </c>
+      <c r="W133">
+        <v>0.41</v>
+      </c>
+      <c r="X133">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B134">
         <v>2021</v>
@@ -9491,10 +11892,28 @@
       <c r="R134">
         <v>48066924</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <v>0.63</v>
+      </c>
+      <c r="T134">
+        <v>0.23</v>
+      </c>
+      <c r="U134">
+        <v>0.7</v>
+      </c>
+      <c r="V134">
+        <v>0.63</v>
+      </c>
+      <c r="W134">
+        <v>0.34</v>
+      </c>
+      <c r="X134">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B135">
         <v>2021</v>
@@ -9547,10 +11966,28 @@
       <c r="R135">
         <v>617896</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <v>0.84</v>
+      </c>
+      <c r="T135">
+        <v>0.94</v>
+      </c>
+      <c r="U135">
+        <v>0.37</v>
+      </c>
+      <c r="V135">
+        <v>1.86</v>
+      </c>
+      <c r="W135">
+        <v>0.62</v>
+      </c>
+      <c r="X135">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B136">
         <v>2021</v>
@@ -9603,10 +12040,28 @@
       <c r="R136">
         <v>10416131</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <v>0.75</v>
+      </c>
+      <c r="T136">
+        <v>1.05</v>
+      </c>
+      <c r="U136">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V136">
+        <v>1.29</v>
+      </c>
+      <c r="W136">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X136">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B137">
         <v>2021</v>
@@ -9659,10 +12114,28 @@
       <c r="R137">
         <v>8707023</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <v>0.89</v>
+      </c>
+      <c r="T137">
+        <v>0.76</v>
+      </c>
+      <c r="U137">
+        <v>0.53</v>
+      </c>
+      <c r="V137">
+        <v>0.99</v>
+      </c>
+      <c r="W137">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X137">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B138">
         <v>2021</v>
@@ -9715,10 +12188,28 @@
       <c r="R138">
         <v>21628839</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <v>0.15</v>
+      </c>
+      <c r="T138">
+        <v>0.59</v>
+      </c>
+      <c r="U138">
+        <v>0.19</v>
+      </c>
+      <c r="V138">
+        <v>0.93</v>
+      </c>
+      <c r="W138">
+        <v>0.27</v>
+      </c>
+      <c r="X138">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B139">
         <v>2021</v>
@@ -9771,10 +12262,28 @@
       <c r="R139">
         <v>23558333</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <v>0.79</v>
+      </c>
+      <c r="T139">
+        <v>0.83</v>
+      </c>
+      <c r="U139">
+        <v>0.9</v>
+      </c>
+      <c r="V139">
+        <v>0.89</v>
+      </c>
+      <c r="W139">
+        <v>0.98</v>
+      </c>
+      <c r="X139">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B140">
         <v>2021</v>
@@ -9827,10 +12336,28 @@
       <c r="R140">
         <v>9966908</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T140">
+        <v>0.61</v>
+      </c>
+      <c r="U140">
+        <v>0.35</v>
+      </c>
+      <c r="V140">
+        <v>1.21</v>
+      </c>
+      <c r="W140">
+        <v>0.23</v>
+      </c>
+      <c r="X140">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B141">
         <v>2021</v>
@@ -9883,10 +12410,28 @@
       <c r="R141">
         <v>62830412</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <v>1.22</v>
+      </c>
+      <c r="T141">
+        <v>0.69</v>
+      </c>
+      <c r="U141">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V141">
+        <v>0.92</v>
+      </c>
+      <c r="W141">
+        <v>0.4</v>
+      </c>
+      <c r="X141">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B142">
         <v>2021</v>
@@ -9939,10 +12484,28 @@
       <c r="R142">
         <v>71727332</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <v>1.19</v>
+      </c>
+      <c r="T142">
+        <v>0.3</v>
+      </c>
+      <c r="U142">
+        <v>0.61</v>
+      </c>
+      <c r="V142">
+        <v>1.17</v>
+      </c>
+      <c r="W142">
+        <v>0.59</v>
+      </c>
+      <c r="X142">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143">
         <v>2021</v>
@@ -9995,10 +12558,28 @@
       <c r="R143">
         <v>8878379</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143">
+        <v>0.97</v>
+      </c>
+      <c r="T143">
+        <v>0.51</v>
+      </c>
+      <c r="U143">
+        <v>0.6</v>
+      </c>
+      <c r="V143">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="W143">
+        <v>0.42</v>
+      </c>
+      <c r="X143">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B144">
         <v>2021</v>
@@ -10051,10 +12632,28 @@
       <c r="R144">
         <v>1487717</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <v>0.3</v>
+      </c>
+      <c r="T144">
+        <v>0.64</v>
+      </c>
+      <c r="U144">
+        <v>0.42</v>
+      </c>
+      <c r="V144">
+        <v>1.21</v>
+      </c>
+      <c r="W144">
+        <v>0.3</v>
+      </c>
+      <c r="X144">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B145">
         <v>2021</v>
@@ -10107,10 +12706,28 @@
       <c r="R145">
         <v>12048622</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <v>0.48</v>
+      </c>
+      <c r="T145">
+        <v>0.45</v>
+      </c>
+      <c r="U145">
+        <v>0.32</v>
+      </c>
+      <c r="V145">
+        <v>0.99</v>
+      </c>
+      <c r="W145">
+        <v>0.35</v>
+      </c>
+      <c r="X145">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B146">
         <v>2021</v>
@@ -10163,10 +12780,28 @@
       <c r="R146">
         <v>86686253</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T146">
+        <v>0.16</v>
+      </c>
+      <c r="U146">
+        <v>0.44</v>
+      </c>
+      <c r="V146">
+        <v>0.47</v>
+      </c>
+      <c r="W146">
+        <v>0.23</v>
+      </c>
+      <c r="X146">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B147">
         <v>2021</v>
@@ -10219,10 +12854,28 @@
       <c r="R147">
         <v>45910930</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147">
+        <v>0.53</v>
+      </c>
+      <c r="T147">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U147">
+        <v>0.74</v>
+      </c>
+      <c r="V147">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W147">
+        <v>0.17</v>
+      </c>
+      <c r="X147">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B148">
         <v>2021</v>
@@ -10275,10 +12928,28 @@
       <c r="R148">
         <v>9789048</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <v>0.7</v>
+      </c>
+      <c r="T148">
+        <v>0.6</v>
+      </c>
+      <c r="U148">
+        <v>0.85</v>
+      </c>
+      <c r="V148">
+        <v>0.96</v>
+      </c>
+      <c r="W148">
+        <v>0.45</v>
+      </c>
+      <c r="X148">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B149">
         <v>2021</v>
@@ -10331,10 +13002,28 @@
       <c r="R149">
         <v>67668792</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <v>0.81</v>
+      </c>
+      <c r="T149">
+        <v>0.44</v>
+      </c>
+      <c r="U149">
+        <v>0.67</v>
+      </c>
+      <c r="V149">
+        <v>0.79</v>
+      </c>
+      <c r="W149">
+        <v>0.48</v>
+      </c>
+      <c r="X149">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B150">
         <v>2021</v>
@@ -10387,10 +13076,28 @@
       <c r="R150">
         <v>340161440</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <v>1.29</v>
+      </c>
+      <c r="T150">
+        <v>1.05</v>
+      </c>
+      <c r="U150">
+        <v>0.59</v>
+      </c>
+      <c r="V150">
+        <v>1.39</v>
+      </c>
+      <c r="W150">
+        <v>0.47</v>
+      </c>
+      <c r="X150">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B151">
         <v>2021</v>
@@ -10441,12 +13148,30 @@
         <v>582.29999999999995</v>
       </c>
       <c r="R151" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S151">
+        <v>0.59</v>
+      </c>
+      <c r="T151">
+        <v>0.69</v>
+      </c>
+      <c r="U151">
+        <v>0.62</v>
+      </c>
+      <c r="V151">
+        <v>1.24</v>
+      </c>
+      <c r="W151">
+        <v>0.37</v>
+      </c>
+      <c r="X151">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B152">
         <v>2021</v>
@@ -10499,10 +13224,28 @@
       <c r="R152">
         <v>3396695</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <v>0.46</v>
+      </c>
+      <c r="T152">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U152">
+        <v>0.43</v>
+      </c>
+      <c r="V152">
+        <v>0.73</v>
+      </c>
+      <c r="W152">
+        <v>0.25</v>
+      </c>
+      <c r="X152">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B153">
         <v>2021</v>
@@ -10555,10 +13298,28 @@
       <c r="R153">
         <v>34243696</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <v>0.66</v>
+      </c>
+      <c r="T153">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U153">
+        <v>0.75</v>
+      </c>
+      <c r="V153">
+        <v>0.99</v>
+      </c>
+      <c r="W153">
+        <v>0.38</v>
+      </c>
+      <c r="X153">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B154">
         <v>2021</v>
@@ -10611,10 +13372,28 @@
       <c r="R154">
         <v>98935098</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154">
+        <v>0.35</v>
+      </c>
+      <c r="T154">
+        <v>0.91</v>
+      </c>
+      <c r="U154">
+        <v>0.3</v>
+      </c>
+      <c r="V154">
+        <v>1.03</v>
+      </c>
+      <c r="W154">
+        <v>0.39</v>
+      </c>
+      <c r="X154">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B155">
         <v>2021</v>
@@ -10667,10 +13446,28 @@
       <c r="R155">
         <v>5185336</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155">
+        <v>0.66</v>
+      </c>
+      <c r="T155">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U155">
+        <v>0.68</v>
+      </c>
+      <c r="V155">
+        <v>1.08</v>
+      </c>
+      <c r="W155">
+        <v>0.31</v>
+      </c>
+      <c r="X155">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B156">
         <v>2021</v>
@@ -10721,12 +13518,30 @@
         <v>2831.7</v>
       </c>
       <c r="R156" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S156">
+        <v>0.98</v>
+      </c>
+      <c r="T156">
+        <v>0.53</v>
+      </c>
+      <c r="U156">
+        <v>0.93</v>
+      </c>
+      <c r="V156">
+        <v>1.01</v>
+      </c>
+      <c r="W156">
+        <v>0.24</v>
+      </c>
+      <c r="X156">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B157">
         <v>2021</v>
@@ -10779,10 +13594,28 @@
       <c r="R157">
         <v>19603607</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157">
+        <v>1.4</v>
+      </c>
+      <c r="T157">
+        <v>0.5</v>
+      </c>
+      <c r="U157">
+        <v>1.63</v>
+      </c>
+      <c r="V157">
+        <v>1.44</v>
+      </c>
+      <c r="W157">
+        <v>0.5</v>
+      </c>
+      <c r="X157">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B158">
         <v>2021</v>
@@ -10834,6 +13667,24 @@
       </c>
       <c r="R158">
         <v>51848397</v>
+      </c>
+      <c r="S158">
+        <v>0.88</v>
+      </c>
+      <c r="T158">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U158">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V158">
+        <v>1</v>
+      </c>
+      <c r="W158">
+        <v>0.39</v>
+      </c>
+      <c r="X158">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -10855,24 +13706,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -10894,2248 +13745,2248 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F18" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F27" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" t="s">
         <v>334</v>
-      </c>
-      <c r="F28" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F29" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F30" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B31" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B32" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B36" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F45" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F50" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F51" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F55" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D56" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F62" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F66" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F70" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F71" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F74" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B78" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F78" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B80" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F81" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B83" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F83" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F86" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F87" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F88" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F90" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F91" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F93" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F94" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B95" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F95" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D100" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F100" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B102" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F102" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F103" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B105" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D106" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F106" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D107" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F107" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F108" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F111" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D112" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F112" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B114" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D114" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F114" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D115" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F116" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F117" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F119" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D120" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F121" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B123" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C124" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F124" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F128" t="s">
         <v>23</v>
-      </c>
-      <c r="B128" t="s">
-        <v>27</v>
-      </c>
-      <c r="C128" t="s">
-        <v>109</v>
-      </c>
-      <c r="D128" t="s">
-        <v>190</v>
-      </c>
-      <c r="F128" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F131" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D133" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F133" t="s">
         <v>1</v>
@@ -13143,441 +15994,441 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B134" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F134" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D135" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B136" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C136" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D136" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F136" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B137" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D137" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F137" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D138" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C139" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D140" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F140" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B141" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D141" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D142" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B143" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C143" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D143" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F143" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C144" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D144" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" t="s">
         <v>53</v>
       </c>
-      <c r="B145" t="s">
-        <v>54</v>
-      </c>
       <c r="C145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D145" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F145" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B147" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C147" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D148" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F148" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F150" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C151" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F151" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C153" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D153" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C154" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F154" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B155" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C155" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D155" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F155" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C156" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F157" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B158" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C158" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D158" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F158" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D159" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F159" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -13587,252 +16438,203 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="4" width="50.85546875" customWidth="1"/>
+    <col min="2" max="3" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" t="s">
         <v>413</v>
       </c>
-      <c r="B5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" t="s">
-        <v>499</v>
-      </c>
-      <c r="D10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" t="s">
-        <v>488</v>
-      </c>
-      <c r="D12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>458</v>
-      </c>
-      <c r="C13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>470</v>
-      </c>
-      <c r="B16" t="s">
-        <v>418</v>
-      </c>
       <c r="C16" t="s">
-        <v>463</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D17" t="s">
-        <v>321</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
